--- a/site/StructureDefinition-ecog.xlsx
+++ b/site/StructureDefinition-ecog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T07:55:24+00:00</t>
+    <t>2024-02-29T10:08:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-ecog.xlsx
+++ b/site/StructureDefinition-ecog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T10:08:17+00:00</t>
+    <t>2024-02-29T10:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-ecog.xlsx
+++ b/site/StructureDefinition-ecog.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$53</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -24,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://krebsregister-rlp.de/fhir/tumorboard/StructureDefinition/ecog</t>
+    <t>http://idg-rlp.de/fhir/tumorkonferenzen/StructureDefinition/ecog</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T10:35:30+00:00</t>
+    <t>2024-04-07T13:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -716,7 +719,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://krebsregister-rlp.de/fhir/tumorboard/StructureDefinition/TumorPatient)
+    <t xml:space="preserve">Reference(http://idg-rlp.de/fhir/tumorkonferenzen/StructureDefinition/TumorPatient)
 </t>
   </si>
   <si>
@@ -1589,6 +1592,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1937,7 +1955,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>27</v>
       </c>
@@ -2057,7 +2075,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>89</v>
       </c>
@@ -2177,7 +2195,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>97</v>
       </c>
@@ -2295,7 +2313,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>103</v>
       </c>
@@ -2415,7 +2433,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>109</v>
       </c>
@@ -2535,7 +2553,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>118</v>
       </c>
@@ -2655,7 +2673,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>126</v>
       </c>
@@ -2775,7 +2793,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>134</v>
       </c>
@@ -2891,7 +2909,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>142</v>
       </c>
@@ -3011,7 +3029,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>149</v>
       </c>
@@ -3133,7 +3151,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>156</v>
       </c>
@@ -3253,7 +3271,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>165</v>
       </c>
@@ -3373,7 +3391,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>174</v>
       </c>
@@ -3493,7 +3511,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>183</v>
       </c>
@@ -3615,7 +3633,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>196</v>
       </c>
@@ -3737,7 +3755,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>206</v>
       </c>
@@ -3756,7 +3774,7 @@
         <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>79</v>
@@ -3859,7 +3877,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>222</v>
       </c>
@@ -3878,7 +3896,7 @@
         <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>79</v>
@@ -3981,7 +3999,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>232</v>
       </c>
@@ -4101,7 +4119,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>238</v>
       </c>
@@ -4223,7 +4241,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>249</v>
       </c>
@@ -4345,7 +4363,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>260</v>
       </c>
@@ -4465,7 +4483,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>268</v>
       </c>
@@ -4585,7 +4603,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>277</v>
       </c>
@@ -4705,7 +4723,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>289</v>
       </c>
@@ -4827,7 +4845,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>292</v>
       </c>
@@ -4949,7 +4967,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>302</v>
       </c>
@@ -5071,7 +5089,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>314</v>
       </c>
@@ -5193,7 +5211,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>322</v>
       </c>
@@ -5313,7 +5331,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>332</v>
       </c>
@@ -5435,7 +5453,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>341</v>
       </c>
@@ -5555,7 +5573,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>350</v>
       </c>
@@ -5675,7 +5693,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>359</v>
       </c>
@@ -5797,7 +5815,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>368</v>
       </c>
@@ -5915,7 +5933,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>374</v>
       </c>
@@ -6035,7 +6053,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>378</v>
       </c>
@@ -6157,7 +6175,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>383</v>
       </c>
@@ -6275,7 +6293,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>390</v>
       </c>
@@ -6393,7 +6411,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>394</v>
       </c>
@@ -6515,7 +6533,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>403</v>
       </c>
@@ -6637,7 +6655,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>410</v>
       </c>
@@ -6757,7 +6775,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>416</v>
       </c>
@@ -6875,7 +6893,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
         <v>420</v>
       </c>
@@ -6995,7 +7013,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
         <v>427</v>
       </c>
@@ -7115,7 +7133,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
         <v>433</v>
       </c>
@@ -7237,7 +7255,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
         <v>440</v>
       </c>
@@ -7355,7 +7373,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
         <v>441</v>
       </c>
@@ -7475,7 +7493,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
         <v>442</v>
       </c>
@@ -7597,7 +7615,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
         <v>443</v>
       </c>
@@ -7719,7 +7737,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
         <v>448</v>
       </c>
@@ -7841,7 +7859,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
         <v>452</v>
       </c>
@@ -7963,7 +7981,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
         <v>456</v>
       </c>
@@ -8085,7 +8103,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>457</v>
       </c>
@@ -8208,6 +8226,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AP53">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI52">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>